--- a/Outputs/1. Budget/Grid Search/Evaluation Metrics.xlsx
+++ b/Outputs/1. Budget/Grid Search/Evaluation Metrics.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/Model-1/model/Output_Budget/1. Baseline/Grid Search/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_085D3A279352C40E62355476581146F8AADF84CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD253863-1A3C-416D-B3EF-A90016A40DD7}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Budget</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>FiT</t>
   </si>
@@ -40,38 +31,17 @@
     <t>Household Surplus</t>
   </si>
   <si>
-    <t>1250000</t>
+    <t>Wasted generation (from total)</t>
   </si>
   <si>
-    <t>1500000</t>
-  </si>
-  <si>
-    <t>250000</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>2000000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>1750000</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>750000</t>
+    <t>Budget</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,8 +52,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,14 +104,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -427,38 +391,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>100000</v>
       </c>
       <c r="B2">
         <v>0.13</v>
@@ -467,18 +432,21 @@
         <v>0.4</v>
       </c>
       <c r="D2">
-        <v>0.35836827204850769</v>
+        <v>0.3583682720485077</v>
       </c>
       <c r="E2">
-        <v>0.2234802810223456</v>
+        <v>0.2234802810223454</v>
       </c>
       <c r="F2">
-        <v>5700859.5294516822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>5700859.529451682</v>
+      </c>
+      <c r="G2">
+        <v>0.131450557861831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>250000</v>
       </c>
       <c r="B3">
         <v>0.13</v>
@@ -487,58 +455,67 @@
         <v>0.37</v>
       </c>
       <c r="D3">
-        <v>0.14490559857105059</v>
+        <v>0.1449055985710505</v>
       </c>
       <c r="E3">
-        <v>0.12916507200038191</v>
+        <v>0.1291650720003819</v>
       </c>
       <c r="F3">
         <v>7926212.885027498</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
+      <c r="G3">
+        <v>0.07597458126077841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>400000</v>
       </c>
       <c r="B4">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="C4">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="D4">
-        <v>0.1390739428283676</v>
+        <v>0.1242994405177532</v>
       </c>
       <c r="E4">
-        <v>9.2079411504634293E-2</v>
+        <v>0.09728408489461737</v>
       </c>
       <c r="F4">
-        <v>8258752.3796169506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>8360841.228242337</v>
+      </c>
+      <c r="G4">
+        <v>0.05722226216995192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>750000</v>
       </c>
       <c r="B5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C5">
         <v>0.32</v>
       </c>
       <c r="D5">
-        <v>2.695802279162152E-2</v>
+        <v>0.02881684065337459</v>
       </c>
       <c r="E5">
-        <v>9.7158496900036598E-2</v>
+        <v>0.1023872458912847</v>
       </c>
       <c r="F5">
-        <v>9446392.038026927</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>9520175.742822614</v>
+      </c>
+      <c r="G5">
+        <v>0.06022392905886901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>1000000</v>
       </c>
       <c r="B6">
         <v>0.06</v>
@@ -547,99 +524,111 @@
         <v>0.3</v>
       </c>
       <c r="D6">
-        <v>3.7984572108003323E-2</v>
+        <v>0.03798457210800325</v>
       </c>
       <c r="E6">
-        <v>0.1741155494467129</v>
+        <v>0.1741155494467131</v>
       </c>
       <c r="F6">
-        <v>9675252.0044199117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>9675252.004419912</v>
+      </c>
+      <c r="G6">
+        <v>0.1024143427889334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>1250000</v>
       </c>
       <c r="B7">
         <v>0.04</v>
       </c>
       <c r="C7">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="D7">
-        <v>3.7984572108003288E-2</v>
+        <v>0.03798457210800329</v>
       </c>
       <c r="E7">
-        <v>0.16804243886007611</v>
+        <v>0.1680424388600761</v>
       </c>
       <c r="F7">
-        <v>9734124.3429999948</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9734124.342999995</v>
+      </c>
+      <c r="G7">
+        <v>0.09884215390981617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>1500000</v>
       </c>
       <c r="B8">
         <v>0.04</v>
       </c>
       <c r="C8">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="D8">
-        <v>3.7984572108003288E-2</v>
+        <v>0.03798457210800332</v>
       </c>
       <c r="E8">
-        <v>0.168042438860076</v>
+        <v>0.1680424388600755</v>
       </c>
       <c r="F8">
-        <v>9734124.3429999948</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>9734124.342999993</v>
+      </c>
+      <c r="G8">
+        <v>0.09884215390981582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>1750000</v>
       </c>
       <c r="B9">
         <v>0.04</v>
       </c>
       <c r="C9">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="D9">
-        <v>3.7984572108003288E-2</v>
+        <v>0.03798457210800329</v>
       </c>
       <c r="E9">
-        <v>0.16804243886007589</v>
+        <v>0.1680424388600761</v>
       </c>
       <c r="F9">
-        <v>9734124.3429999966</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9734124.342999995</v>
+      </c>
+      <c r="G9">
+        <v>0.09884215390981617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>2000000</v>
       </c>
       <c r="B10">
         <v>0.04</v>
       </c>
       <c r="C10">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="D10">
-        <v>3.7984572108003253E-2</v>
+        <v>0.03798457210800329</v>
       </c>
       <c r="E10">
-        <v>0.168042438860076</v>
+        <v>0.1680424388600761</v>
       </c>
       <c r="F10">
-        <v>9734124.3429999929</v>
+        <v>9734124.342999995</v>
+      </c>
+      <c r="G10">
+        <v>0.09884215390981617</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
-    <sortCondition ref="A2:A10" customList="100000,250000,125000,400000,750000,1000000,1250000,1500000,1750000"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Outputs/1. Budget/Grid Search/Evaluation Metrics.xlsx
+++ b/Outputs/1. Budget/Grid Search/Evaluation Metrics.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/microgrid_MP/Outputs/1. Budget/Grid Search/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_59D5E13DDA30921FD2FE31D2F8F2D3C2D4D9039E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F5A084F-B81A-4B1D-84E9-D6D25A5CA875}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,13 +110,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,7 +162,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -182,6 +196,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -216,9 +231,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,14 +407,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -421,7 +443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>100000</v>
       </c>
@@ -432,19 +454,19 @@
         <v>0.4</v>
       </c>
       <c r="D2">
-        <v>0.3583682720485077</v>
+        <v>0.35836827204850769</v>
       </c>
       <c r="E2">
-        <v>0.2234802810223454</v>
+        <v>0.22348028102234541</v>
       </c>
       <c r="F2">
-        <v>5700859.529451682</v>
+        <v>5700859.5294516822</v>
       </c>
       <c r="G2">
-        <v>0.131450557861831</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.13145055786183099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>250000</v>
       </c>
@@ -455,19 +477,19 @@
         <v>0.37</v>
       </c>
       <c r="D3">
-        <v>0.1449055985710505</v>
+        <v>0.14490559857105051</v>
       </c>
       <c r="E3">
-        <v>0.1291650720003819</v>
+        <v>0.12916507200038191</v>
       </c>
       <c r="F3">
         <v>7926212.885027498</v>
       </c>
       <c r="G3">
-        <v>0.07597458126077841</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>7.5974581260778412E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>400000</v>
       </c>
@@ -481,16 +503,16 @@
         <v>0.1242994405177532</v>
       </c>
       <c r="E4">
-        <v>0.09728408489461737</v>
+        <v>9.7284084894617373E-2</v>
       </c>
       <c r="F4">
-        <v>8360841.228242337</v>
+        <v>8360841.2282423368</v>
       </c>
       <c r="G4">
-        <v>0.05722226216995192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>5.7222262169951917E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>750000</v>
       </c>
@@ -501,19 +523,19 @@
         <v>0.32</v>
       </c>
       <c r="D5">
-        <v>0.02881684065337459</v>
+        <v>2.881684065337459E-2</v>
       </c>
       <c r="E5">
         <v>0.1023872458912847</v>
       </c>
       <c r="F5">
-        <v>9520175.742822614</v>
+        <v>9520175.7428226136</v>
       </c>
       <c r="G5">
-        <v>0.06022392905886901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>6.0223929058869009E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1000000</v>
       </c>
@@ -524,19 +546,19 @@
         <v>0.3</v>
       </c>
       <c r="D6">
-        <v>0.03798457210800325</v>
+        <v>3.7984572108003253E-2</v>
       </c>
       <c r="E6">
-        <v>0.1741155494467131</v>
+        <v>0.17411554944671309</v>
       </c>
       <c r="F6">
-        <v>9675252.004419912</v>
+        <v>9675252.0044199117</v>
       </c>
       <c r="G6">
         <v>0.1024143427889334</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1250000</v>
       </c>
@@ -544,22 +566,22 @@
         <v>0.04</v>
       </c>
       <c r="C7">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D7">
-        <v>0.03798457210800329</v>
+        <v>3.7984572108003288E-2</v>
       </c>
       <c r="E7">
-        <v>0.1680424388600761</v>
+        <v>0.16804243886007611</v>
       </c>
       <c r="F7">
-        <v>9734124.342999995</v>
+        <v>9734124.3429999948</v>
       </c>
       <c r="G7">
-        <v>0.09884215390981617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>9.8842153909816169E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1500000</v>
       </c>
@@ -567,22 +589,22 @@
         <v>0.04</v>
       </c>
       <c r="C8">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D8">
-        <v>0.03798457210800332</v>
+        <v>3.7984572108003323E-2</v>
       </c>
       <c r="E8">
         <v>0.1680424388600755</v>
       </c>
       <c r="F8">
-        <v>9734124.342999993</v>
+        <v>9734124.3429999929</v>
       </c>
       <c r="G8">
-        <v>0.09884215390981582</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>9.8842153909815822E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1750000</v>
       </c>
@@ -590,22 +612,22 @@
         <v>0.04</v>
       </c>
       <c r="C9">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D9">
-        <v>0.03798457210800329</v>
+        <v>3.7984572108003288E-2</v>
       </c>
       <c r="E9">
-        <v>0.1680424388600761</v>
+        <v>0.16804243886007611</v>
       </c>
       <c r="F9">
-        <v>9734124.342999995</v>
+        <v>9734124.3429999948</v>
       </c>
       <c r="G9">
-        <v>0.09884215390981617</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>9.8842153909816169E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2000000</v>
       </c>
@@ -613,19 +635,19 @@
         <v>0.04</v>
       </c>
       <c r="C10">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D10">
-        <v>0.03798457210800329</v>
+        <v>3.7984572108003288E-2</v>
       </c>
       <c r="E10">
-        <v>0.1680424388600761</v>
+        <v>0.16804243886007611</v>
       </c>
       <c r="F10">
-        <v>9734124.342999995</v>
+        <v>9734124.3429999948</v>
       </c>
       <c r="G10">
-        <v>0.09884215390981617</v>
+        <v>9.8842153909816169E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Evaluation Metrics.xlsx
+++ b/Outputs/1. Budget/Grid Search/Evaluation Metrics.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/microgrid_MP/Outputs/1. Budget/Grid Search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_59D5E13DDA30921FD2FE31D2F8F2D3C2D4D9039E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F5A084F-B81A-4B1D-84E9-D6D25A5CA875}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_085DE507547F320F6235547658A166788E558665" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BED82460-7FE7-412D-A623-769D8B22A7EF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Budget</t>
+  </si>
   <si>
     <t>FiT</t>
   </si>
@@ -39,9 +42,6 @@
   <si>
     <t>Wasted generation (from total)</t>
   </si>
-  <si>
-    <t>Budget</t>
-  </si>
 </sst>
 </file>
 
@@ -58,10 +58,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,9 +119,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,7 +159,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -196,7 +193,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -231,10 +227,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,36 +406,36 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -454,16 +449,16 @@
         <v>0.4</v>
       </c>
       <c r="D2">
-        <v>0.35836827204850769</v>
+        <v>0.35818875238055309</v>
       </c>
       <c r="E2">
-        <v>0.22348028102234541</v>
+        <v>0.22197198218901401</v>
       </c>
       <c r="F2">
-        <v>5700859.5294516822</v>
+        <v>5704260.7247040588</v>
       </c>
       <c r="G2">
-        <v>0.13145055786183099</v>
+        <v>0.1305633801557857</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -471,22 +466,22 @@
         <v>250000</v>
       </c>
       <c r="B3">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="C3">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="D3">
-        <v>0.14490559857105051</v>
+        <v>0.17682660770120409</v>
       </c>
       <c r="E3">
-        <v>0.12916507200038191</v>
+        <v>0.1217739969044872</v>
       </c>
       <c r="F3">
-        <v>7926212.885027498</v>
+        <v>7719893.0520599103</v>
       </c>
       <c r="G3">
-        <v>7.5974581260778412E-2</v>
+        <v>7.1627168862201274E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -494,22 +489,22 @@
         <v>400000</v>
       </c>
       <c r="B4">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C4">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="D4">
-        <v>0.1242994405177532</v>
+        <v>0.12881565437962009</v>
       </c>
       <c r="E4">
-        <v>9.7284084894617373E-2</v>
+        <v>0.1086785250784499</v>
       </c>
       <c r="F4">
-        <v>8360841.2282423368</v>
+        <v>8203619.0975476587</v>
       </c>
       <c r="G4">
-        <v>5.7222262169951917E-2</v>
+        <v>6.392444417829786E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -517,22 +512,22 @@
         <v>750000</v>
       </c>
       <c r="B5">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C5">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="D5">
-        <v>2.881684065337459E-2</v>
+        <v>2.651314960383595E-2</v>
       </c>
       <c r="E5">
-        <v>0.1023872458912847</v>
+        <v>9.3559321760570274E-2</v>
       </c>
       <c r="F5">
-        <v>9520175.7428226136</v>
+        <v>9259228.2585114501</v>
       </c>
       <c r="G5">
-        <v>6.0223929058869009E-2</v>
+        <v>5.5031365551987163E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -540,19 +535,19 @@
         <v>1000000</v>
       </c>
       <c r="B6">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="C6">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D6">
         <v>3.7984572108003253E-2</v>
       </c>
       <c r="E6">
-        <v>0.17411554944671309</v>
+        <v>0.17411554944671301</v>
       </c>
       <c r="F6">
-        <v>9675252.0044199117</v>
+        <v>9817522.7338737287</v>
       </c>
       <c r="G6">
         <v>0.1024143427889334</v>
@@ -563,22 +558,22 @@
         <v>1250000</v>
       </c>
       <c r="B7">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="C7">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D7">
         <v>3.7984572108003288E-2</v>
       </c>
       <c r="E7">
-        <v>0.16804243886007611</v>
+        <v>0.1680424388600758</v>
       </c>
       <c r="F7">
-        <v>9734124.3429999948</v>
+        <v>9875590.1982903536</v>
       </c>
       <c r="G7">
-        <v>9.8842153909816169E-2</v>
+        <v>9.8842153909815988E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -586,22 +581,22 @@
         <v>1500000</v>
       </c>
       <c r="B8">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="C8">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D8">
         <v>3.7984572108003323E-2</v>
       </c>
       <c r="E8">
-        <v>0.1680424388600755</v>
+        <v>0.168042438860076</v>
       </c>
       <c r="F8">
-        <v>9734124.3429999929</v>
+        <v>9875590.1982903536</v>
       </c>
       <c r="G8">
-        <v>9.8842153909815822E-2</v>
+        <v>9.8842153909816127E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -609,22 +604,22 @@
         <v>1750000</v>
       </c>
       <c r="B9">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="C9">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D9">
-        <v>3.7984572108003288E-2</v>
+        <v>3.7984572108003253E-2</v>
       </c>
       <c r="E9">
-        <v>0.16804243886007611</v>
+        <v>0.16804243886007619</v>
       </c>
       <c r="F9">
-        <v>9734124.3429999948</v>
+        <v>9875590.1982903555</v>
       </c>
       <c r="G9">
-        <v>9.8842153909816169E-2</v>
+        <v>9.8842153909816211E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -632,25 +627,25 @@
         <v>2000000</v>
       </c>
       <c r="B10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="C10">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D10">
-        <v>3.7984572108003288E-2</v>
+        <v>3.7984572108003253E-2</v>
       </c>
       <c r="E10">
         <v>0.16804243886007611</v>
       </c>
       <c r="F10">
-        <v>9734124.3429999948</v>
+        <v>9875590.1982903536</v>
       </c>
       <c r="G10">
         <v>9.8842153909816169E-2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Outputs/1. Budget/Grid Search/Evaluation Metrics.xlsx
+++ b/Outputs/1. Budget/Grid Search/Evaluation Metrics.xlsx
@@ -1,69 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/microgrid_MP/Outputs/1. Budget/Grid Search/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_085DE507547F320F6235547658A166788E558665" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BED82460-7FE7-412D-A623-769D8B22A7EF}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>FiT</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Unmet Demand</t>
-  </si>
-  <si>
-    <t>Wasted Surplus</t>
-  </si>
-  <si>
-    <t>Household Surplus</t>
-  </si>
-  <si>
-    <t>Wasted generation (from total)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -402,247 +420,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Budget</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FiT</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unmet Demand</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Wasted Surplus</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Household Surplus</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Wasted generation (from total)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>0.13</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0.4</v>
       </c>
-      <c r="D2">
-        <v>0.35818875238055309</v>
-      </c>
-      <c r="E2">
-        <v>0.22197198218901401</v>
-      </c>
-      <c r="F2">
-        <v>5704260.7247040588</v>
-      </c>
-      <c r="G2">
-        <v>0.1305633801557857</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="D2" t="n">
+        <v>0.3561167324140648</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2224236305683204</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5712161.596128117</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1308290386342234</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>250000</v>
       </c>
-      <c r="B3">
-        <v>0.11</v>
-      </c>
-      <c r="C3">
-        <v>0.36</v>
-      </c>
-      <c r="D3">
-        <v>0.17682660770120409</v>
-      </c>
-      <c r="E3">
-        <v>0.1217739969044872</v>
-      </c>
-      <c r="F3">
-        <v>7719893.0520599103</v>
-      </c>
-      <c r="G3">
-        <v>7.1627168862201274E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="B3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1456920192565752</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1222607932084376</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7920533.782699983</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.07191350126444551</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>400000</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>0.12</v>
       </c>
-      <c r="C4">
-        <v>0.36</v>
-      </c>
-      <c r="D4">
-        <v>0.12881565437962009</v>
-      </c>
-      <c r="E4">
-        <v>0.1086785250784499</v>
-      </c>
-      <c r="F4">
-        <v>8203619.0975476587</v>
-      </c>
-      <c r="G4">
-        <v>6.392444417829786E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="C4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1288156543796201</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1086785250784501</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8412870.83807423</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.06392444417829794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>420000</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1224979687371508</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.10614610006183</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8471570.959588038</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.06243487794160307</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>750000</v>
       </c>
-      <c r="B5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C5">
-        <v>0.33</v>
-      </c>
-      <c r="D5">
-        <v>2.651314960383595E-2</v>
-      </c>
-      <c r="E5">
-        <v>9.3559321760570274E-2</v>
-      </c>
-      <c r="F5">
-        <v>9259228.2585114501</v>
-      </c>
-      <c r="G5">
-        <v>5.5031365551987163E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="B6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02651314960383592</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.09355932176057027</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9491631.540266344</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05503136555198716</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>1000000</v>
       </c>
-      <c r="B6">
+      <c r="B7" t="n">
         <v>0.05</v>
       </c>
-      <c r="C6">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D6">
-        <v>3.7984572108003253E-2</v>
-      </c>
-      <c r="E6">
-        <v>0.17411554944671301</v>
-      </c>
-      <c r="F6">
-        <v>9817522.7338737287</v>
-      </c>
-      <c r="G6">
-        <v>0.1024143427889334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="C7" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03798457210800329</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1741155494467129</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9817522.733873729</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1024143427889333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>1250000</v>
       </c>
-      <c r="B7">
+      <c r="B8" t="n">
         <v>0.03</v>
       </c>
-      <c r="C7">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D7">
-        <v>3.7984572108003288E-2</v>
-      </c>
-      <c r="E7">
-        <v>0.1680424388600758</v>
-      </c>
-      <c r="F7">
-        <v>9875590.1982903536</v>
-      </c>
-      <c r="G7">
-        <v>9.8842153909815988E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="C8" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03798457210800329</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1680424388600761</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9875590.198290354</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.09884215390981617</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>1500000</v>
       </c>
-      <c r="B8">
+      <c r="B9" t="n">
         <v>0.03</v>
       </c>
-      <c r="C8">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D8">
-        <v>3.7984572108003323E-2</v>
-      </c>
-      <c r="E8">
+      <c r="C9" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.03798457210800329</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1680424388600762</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9875590.198290354</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.09884215390981625</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.03798457210800329</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.168042438860076</v>
       </c>
-      <c r="F8">
-        <v>9875590.1982903536</v>
-      </c>
-      <c r="G8">
-        <v>9.8842153909816127E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>1750000</v>
-      </c>
-      <c r="B9">
+      <c r="F10" t="n">
+        <v>9875590.198290354</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.09884215390981613</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="B11" t="n">
         <v>0.03</v>
       </c>
-      <c r="C9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D9">
-        <v>3.7984572108003253E-2</v>
-      </c>
-      <c r="E9">
-        <v>0.16804243886007619</v>
-      </c>
-      <c r="F9">
-        <v>9875590.1982903555</v>
-      </c>
-      <c r="G9">
-        <v>9.8842153909816211E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="B10">
-        <v>0.03</v>
-      </c>
-      <c r="C10">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D10">
-        <v>3.7984572108003253E-2</v>
-      </c>
-      <c r="E10">
-        <v>0.16804243886007611</v>
-      </c>
-      <c r="F10">
-        <v>9875590.1982903536</v>
-      </c>
-      <c r="G10">
-        <v>9.8842153909816169E-2</v>
+      <c r="C11" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.03798457210800329</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1680424388600759</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9875590.198290354</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.09884215390981604</v>
       </c>
     </row>
   </sheetData>
